--- a/excel_actualizado.xlsx
+++ b/excel_actualizado.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="VARIOS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +460,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16699</v>
+        <v>15799</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13399</v>
+        <v>12199</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6899</v>
+        <v>6299</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9899</v>
+        <v>8999</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19299</v>
+        <v>17599</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11899</v>
+        <v>10799</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16299</v>
+        <v>14799</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17199</v>
+        <v>15699</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17899</v>
+        <v>16299</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71399</v>
+        <v>64999</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>22799</v>
+        <v>20799</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26599</v>
+        <v>24299</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25299</v>
+        <v>22999</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>32799</v>
+        <v>29899</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7099</v>
+        <v>6499</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5499</v>
+        <v>4999</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20299</v>
+        <v>18499</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14499</v>
+        <v>13199</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13899</v>
+        <v>12699</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37599</v>
+        <v>34199</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15599</v>
+        <v>14299</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13199</v>
+        <v>11999</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9099</v>
+        <v>8299</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11299</v>
+        <v>10299</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15499</v>
+        <v>14099</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9999</v>
+        <v>9099</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>32199</v>
+        <v>29399</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21799</v>
+        <v>19799</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9399</v>
+        <v>8599</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>46199</v>
+        <v>42099</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>27399</v>
+        <v>24899</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17399</v>
+        <v>15899</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>28099</v>
+        <v>25599</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>22499</v>
+        <v>20499</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17799</v>
+        <v>16199</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>

--- a/excel_actualizado.xlsx
+++ b/excel_actualizado.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="VARIOS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CIUDAD" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,14 +424,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>price</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sku</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>iva</t>
@@ -459,13 +459,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>15799</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>ACH05-C</t>
         </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18599</v>
       </c>
       <c r="C2" t="n">
         <v>1.105</v>
@@ -490,13 +490,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>12199</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>ACH05-G</t>
         </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14999</v>
       </c>
       <c r="C3" t="n">
         <v>1.105</v>
@@ -521,13 +521,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>6299</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>ACH01</t>
         </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6899</v>
       </c>
       <c r="C4" t="n">
         <v>1.105</v>
@@ -552,13 +552,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>8999</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>ACH06</t>
         </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9899</v>
       </c>
       <c r="C5" t="n">
         <v>1.105</v>
@@ -583,13 +583,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>17599</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>AL93-GR</t>
         </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19299</v>
       </c>
       <c r="C6" t="n">
         <v>1.21</v>
@@ -614,13 +614,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>10799</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>AL90-FEM</t>
         </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11899</v>
       </c>
       <c r="C7" t="n">
         <v>1.21</v>
@@ -645,13 +645,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>14799</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>AL90-GR</t>
         </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16299</v>
       </c>
       <c r="C8" t="n">
         <v>1.21</v>
@@ -676,13 +676,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>15699</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>AL92-GR</t>
         </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17199</v>
       </c>
       <c r="C9" t="n">
         <v>1.21</v>
@@ -707,13 +707,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>16299</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>AL91-GR</t>
         </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17899</v>
       </c>
       <c r="C10" t="n">
         <v>1.21</v>
@@ -738,13 +738,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>64999</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A3019B</t>
         </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71399</v>
       </c>
       <c r="C11" t="n">
         <v>1.21</v>
@@ -769,13 +769,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>20799</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A3026</t>
         </is>
+      </c>
+      <c r="B12" t="n">
+        <v>22799</v>
       </c>
       <c r="C12" t="n">
         <v>1.21</v>
@@ -800,13 +800,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>24299</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A3015</t>
         </is>
+      </c>
+      <c r="B13" t="n">
+        <v>26599</v>
       </c>
       <c r="C13" t="n">
         <v>1.21</v>
@@ -831,13 +831,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>22999</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>I1018</t>
         </is>
+      </c>
+      <c r="B14" t="n">
+        <v>25299</v>
       </c>
       <c r="C14" t="n">
         <v>1.21</v>
@@ -862,13 +862,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>29899</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>I1019</t>
         </is>
+      </c>
+      <c r="B15" t="n">
+        <v>32799</v>
       </c>
       <c r="C15" t="n">
         <v>1.21</v>
@@ -893,13 +893,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>6499</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>B1003</t>
         </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7099</v>
       </c>
       <c r="C16" t="n">
         <v>1.21</v>
@@ -924,13 +924,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>4999</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>B902</t>
         </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5499</v>
       </c>
       <c r="C17" t="n">
         <v>1.21</v>
@@ -955,13 +955,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>18499</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>QDC-303</t>
         </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20299</v>
       </c>
       <c r="C18" t="n">
         <v>1.105</v>
@@ -986,13 +986,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>13199</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>M2007</t>
         </is>
+      </c>
+      <c r="B19" t="n">
+        <v>14499</v>
       </c>
       <c r="C19" t="n">
         <v>1.21</v>
@@ -1017,13 +1017,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>12699</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>M1007</t>
         </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13899</v>
       </c>
       <c r="C20" t="n">
         <v>1.21</v>
@@ -1048,13 +1048,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>34199</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>N60</t>
         </is>
+      </c>
+      <c r="B21" t="n">
+        <v>37599</v>
       </c>
       <c r="C21" t="n">
         <v>1.21</v>
@@ -1079,13 +1079,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>14299</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>MD300-CPP</t>
         </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15599</v>
       </c>
       <c r="C22" t="n">
         <v>1.105</v>
@@ -1110,13 +1110,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>11999</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>BY-618</t>
         </is>
+      </c>
+      <c r="B23" t="n">
+        <v>13199</v>
       </c>
       <c r="C23" t="n">
         <v>1.21</v>
@@ -1141,13 +1141,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>8299</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>BY-573D</t>
         </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9099</v>
       </c>
       <c r="C24" t="n">
         <v>1.21</v>
@@ -1172,13 +1172,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>10299</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>BY-527</t>
         </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11299</v>
       </c>
       <c r="C25" t="n">
         <v>1.21</v>
@@ -1203,13 +1203,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>14099</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>BY-550</t>
         </is>
+      </c>
+      <c r="B26" t="n">
+        <v>15499</v>
       </c>
       <c r="C26" t="n">
         <v>1.21</v>
@@ -1234,13 +1234,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>9099</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>BY-503</t>
         </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9999</v>
       </c>
       <c r="C27" t="n">
         <v>1.21</v>
@@ -1265,13 +1265,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>29399</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>I1205</t>
         </is>
+      </c>
+      <c r="B28" t="n">
+        <v>32199</v>
       </c>
       <c r="C28" t="n">
         <v>1.21</v>
@@ -1296,13 +1296,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>19799</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CH-617</t>
         </is>
+      </c>
+      <c r="B29" t="n">
+        <v>21799</v>
       </c>
       <c r="C29" t="n">
         <v>1.21</v>
@@ -1327,13 +1327,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>8599</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>I1300-SF</t>
         </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9399</v>
       </c>
       <c r="C30" t="n">
         <v>1.21</v>
@@ -1358,13 +1358,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>42099</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CHU503</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>46199</v>
       </c>
       <c r="C31" t="n">
         <v>1.21</v>
@@ -1389,13 +1389,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>24899</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CHUD514</t>
         </is>
+      </c>
+      <c r="B32" t="n">
+        <v>27399</v>
       </c>
       <c r="C32" t="n">
         <v>1.21</v>
@@ -1420,13 +1420,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>15899</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>TAM200</t>
         </is>
+      </c>
+      <c r="B33" t="n">
+        <v>17399</v>
       </c>
       <c r="C33" t="n">
         <v>1.21</v>
@@ -1451,13 +1451,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>25599</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>CHU304</t>
         </is>
+      </c>
+      <c r="B34" t="n">
+        <v>28099</v>
       </c>
       <c r="C34" t="n">
         <v>1.21</v>
@@ -1482,13 +1482,13 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>20499</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>TAB100</t>
         </is>
+      </c>
+      <c r="B35" t="n">
+        <v>22499</v>
       </c>
       <c r="C35" t="n">
         <v>1.21</v>
@@ -1513,13 +1513,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CTA301-C</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
         <v>699</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CTA301-C</t>
-        </is>
       </c>
       <c r="C36" t="n">
         <v>1.21</v>
@@ -1544,13 +1544,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>16199</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>AG-CCMV12</t>
         </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17799</v>
       </c>
       <c r="C37" t="n">
         <v>1.21</v>

--- a/excel_actualizado.xlsx
+++ b/excel_actualizado.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18599</v>
+        <v>18199</v>
       </c>
       <c r="C2" t="n">
         <v>1.105</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14999</v>
+        <v>13399</v>
       </c>
       <c r="C3" t="n">
         <v>1.105</v>

--- a/excel_actualizado.xlsx
+++ b/excel_actualizado.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,1116 +461,930 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACH05-C</t>
+          <t>1005-CTA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18199</v>
+        <v>31299</v>
       </c>
       <c r="C2" t="n">
-        <v>1.105</v>
+        <v>1.21</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">AEROCAMARA AEROCHAMBER - CAMARA DE RETENCION ANTIESTATICA C/ VALVULA Y MASCARILLA PEQUEÑA (VIOLETA) (ACH05-C) </t>
+          <t>MESA TV/LCD/LED 42"</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11374.875</v>
+        <v>19412.46</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACH05-G</t>
+          <t>1005-WH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13399</v>
+        <v>31299</v>
       </c>
       <c r="C3" t="n">
-        <v>1.105</v>
+        <v>1.21</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">AEROCAMARA AEROCHAMBER - CAMARA DE RETENCION ANTIESTATICA C/ VALVULA Y MASCARILLA GRANDE (AZUL) (ACH05-G) </t>
+          <t>MESA TV/LCD/LED 42"</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9157.5</v>
+        <v>19412.46</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACH01</t>
+          <t>1041-CTA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6899</v>
+        <v>38299</v>
       </c>
       <c r="C4" t="n">
-        <v>1.105</v>
+        <v>1.21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AEROCAMARA AEROCHAMBER - CAMARA DE RETENCION ANTIESTATICA C/ VALVULA C/ BOQUILLA (ACH01)</t>
+          <t>PANEL TV/LCD/LED 52"</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4708.8</v>
+        <v>23795.892</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACH06</t>
+          <t>1041-CWB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9899</v>
+        <v>38299</v>
       </c>
       <c r="C5" t="n">
-        <v>1.105</v>
+        <v>1.21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AEROCAMARA AEROCHAMBER - CAMARA DE RETENCION ANTIESTATICA C/ VALVULA Y MASCARILLA (AMARILLA) (ACH06)</t>
+          <t>PANEL TV/LCD/LED 52"</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6773.4</v>
+        <v>23795.892</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AL93-GR</t>
+          <t>1041-WH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19299</v>
+        <v>38299</v>
       </c>
       <c r="C6" t="n">
         <v>1.21</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALMOHADILLA TERMICA CON FUNDA DESMONTABLE CINTURA SILFAB - (AL93-GR) </t>
+          <t>PANEL TV/LCD/LED 52"</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12012</v>
+        <v>23795.892</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AL90-FEM</t>
+          <t>1044-COE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11899</v>
+        <v>41999</v>
       </c>
       <c r="C7" t="n">
         <v>1.21</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALMOHADILLA TERMICA CUORE FEM CON FUNDA DESMONTABLE SMALL - (AL90-FEM) </t>
+          <t>PANEL TV HASTA 65"</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7392</v>
+        <v>26043.084</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AL90-GR</t>
+          <t>1044-CON</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16299</v>
+        <v>41999</v>
       </c>
       <c r="C8" t="n">
         <v>1.21</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALMOHADILLA TERMINA CON FUNDA DESMONTABLE SMALL SILFAB - (AL90-GR) </t>
+          <t>PANEL TV HASTA 65"</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10119</v>
+        <v>26043.084</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AL92-GR</t>
+          <t>1044-EV</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17199</v>
+        <v>35699</v>
       </c>
       <c r="C9" t="n">
         <v>1.21</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALMOHADILLA TERMICA CON FUNDA DESMOTABLE  CERVICAL SILFAB - (AL92-GR) </t>
+          <t>PANEL TV HASTA 65"</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10721</v>
+        <v>22134.924</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AL91-GR</t>
+          <t>1045-NCG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17899</v>
+        <v>66499</v>
       </c>
       <c r="C10" t="n">
         <v>1.21</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Almohadilla termica con funda desmontable LARGE SILFAB (AL91-GR) </t>
+          <t>CENTRO ENTRETENIMIENTO PARA COLGAR</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11154</v>
+        <v>41250.96</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3019B</t>
+          <t>3038-EV</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71399</v>
+        <v>56699</v>
       </c>
       <c r="C11" t="n">
         <v>1.21</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANDADOR ROLLATOR DE 4 RUEDAS 8'' CON CANASTO (A3019B) </t>
+          <t>JUGUETERO 3 CAJONES CON RUEDAS</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>44275</v>
+        <v>35181.72</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A3026</t>
+          <t>3047-NFA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22799</v>
+        <v>44299</v>
       </c>
       <c r="C12" t="n">
         <v>1.21</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANDADOR TIJERA CON DOS RUEDAS (A3026) </t>
+          <t>ESCRITORIO GAMER PC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14150.25</v>
+        <v>27499.536</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A3015</t>
+          <t>3047-NFR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26599</v>
+        <v>44299</v>
       </c>
       <c r="C13" t="n">
         <v>1.21</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANDADOR DE ALUMINIO PLEGABLE TIPO BASTON DOBLE . FUNCION FIJO Y MOVIL (A3015) </t>
+          <t>ESCRITORIO GAMER PC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>16539</v>
+        <v>27499.536</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I1018</t>
+          <t>3047-NFV</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25299</v>
+        <v>44299</v>
       </c>
       <c r="C14" t="n">
         <v>1.21</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASIENTO ELEVAINODORO FIJO CON REGULACION LATERAL P/ DIREFENTES INODOROS </t>
+          <t>ESCRITORIO GAMER PC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15691.5</v>
+        <v>27499.536</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>I1019</t>
+          <t>3048-COE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32799</v>
+        <v>55399</v>
       </c>
       <c r="C15" t="n">
         <v>1.21</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASIENTO ELEVAINODORO CON SOPORTES DE ALUMINIO (I1019) </t>
+          <t>ESCRITORIO CON MUEBLE BAJO</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>20354.3125</v>
+        <v>34385.18400000001</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B1003</t>
+          <t>3048-CON</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7099</v>
+        <v>55399</v>
       </c>
       <c r="C16" t="n">
         <v>1.21</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">BASTON PLEGABLE (B1003) </t>
+          <t>ESCRITORIO CON MUEBLE BAJO</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4456</v>
+        <v>34385.18400000001</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B902</t>
+          <t>3048-EV</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5499</v>
+        <v>55399</v>
       </c>
       <c r="C17" t="n">
         <v>1.21</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">BASTON DE ALUMINIO ANODIZADO REGULABLE (B902) </t>
+          <t>ESCRITORIO CON MUEBLE BAJO</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3455</v>
+        <v>34385.18400000001</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QDC-303</t>
+          <t>3048-NCE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20299</v>
+        <v>55399</v>
       </c>
       <c r="C18" t="n">
-        <v>1.105</v>
+        <v>1.21</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLCHON ANTIESCARAS STANDARD SILFAB - 135KG (QDC-303) </t>
+          <t>ESCRITORIO CON MUEBLE BAJO</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>13804.875</v>
+        <v>34385.18400000001</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M2007</t>
+          <t>3049-COE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14499</v>
+        <v>50699</v>
       </c>
       <c r="C19" t="n">
         <v>1.21</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULETA DE ALUMINIO ANODIZADO , REGULABLE, TAMAÑO XL (PAR) (M2007) </t>
+          <t>ESCRITORIO CON REPISA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9005</v>
+        <v>31449.92400000001</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M1007</t>
+          <t>3049-CON</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13899</v>
+        <v>50699</v>
       </c>
       <c r="C20" t="n">
         <v>1.21</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULETA DE ALUMINIO ANODIZADO, REGULABLE DE 113 A 133CM TAMAÑO NORMAL ( PAR)  (M1007) </t>
+          <t>ESCRITORIO CON REPISA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8640</v>
+        <v>31449.92400000001</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>N60</t>
+          <t>3049-EV</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37599</v>
+        <v>50699</v>
       </c>
       <c r="C21" t="n">
         <v>1.21</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEBULIZADOR ULTRASONICO SILFAB - (N60) Ultra nuovo </t>
+          <t>ESCRITORIO CON REPISA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>23326</v>
+        <v>31449.92400000001</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MD300-CPP</t>
+          <t>3049-NCE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15599</v>
+        <v>50699</v>
       </c>
       <c r="C22" t="n">
-        <v>1.105</v>
+        <v>1.21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">OXIMETRICO DE PULSO SILFAB - PEDIATRICO PANDA (MD300-CPP) </t>
+          <t>ESCRITORIO CON REPISA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10652.625</v>
+        <v>31449.92400000001</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BY-618</t>
+          <t>4100-NCE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13199</v>
+        <v>55099</v>
       </c>
       <c r="C23" t="n">
         <v>1.21</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLANCHA DE PELO SILFAB BIFUNCTION - (BY-618) </t>
+          <t>MESA TV HASTA 75"</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8221</v>
+        <v>34184.808</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BY-573D</t>
+          <t>4200-COE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9099</v>
+        <v>82799</v>
       </c>
       <c r="C24" t="n">
         <v>1.21</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">SECADOR DE PELO SILFAB - MINI WHITE DUAL (BY-573D) </t>
+          <t>MESA TV CHIC 1,33 m</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5650</v>
+        <v>51339.312</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BY-527</t>
+          <t>4200-COG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11299</v>
+        <v>82799</v>
       </c>
       <c r="C25" t="n">
         <v>1.21</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">SECADOR DE PELO SILFAB - 1600W MOTOR DC CURVE (BY-527) </t>
+          <t>MESA TV CHIC 1,33 m</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7044</v>
+        <v>51339.312</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BY-550</t>
+          <t>4200-CON</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15499</v>
+        <v>82799</v>
       </c>
       <c r="C26" t="n">
         <v>1.21</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Secador de pelo 1800-2000W (motor dc lon expert) </t>
+          <t>MESA TV CHIC 1,33 m</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9642</v>
+        <v>51339.312</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BY-503</t>
+          <t>6426-CNN</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9999</v>
+        <v>33699</v>
       </c>
       <c r="C27" t="n">
         <v>1.21</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">SECADOR DE PELO SILFAB -  plegable para viaje 1200W (motor DC pocket) - (BY-503) </t>
+          <t>MESA LUZ JUVENIL 1 CAJON 1 PUERTA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6219</v>
+        <v>20940.12</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I1205</t>
+          <t>6426-COE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32199</v>
+        <v>33699</v>
       </c>
       <c r="C28" t="n">
         <v>1.21</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">SILLA DE BAÑO GIRATORIA PARA INTERIOR DE BAÑERA (I1205) </t>
+          <t>MESA LUZ JUVENIL 1 CAJON 1 PUERTA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20005.875</v>
+        <v>20940.12</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CH-617</t>
+          <t>6426-COG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21799</v>
+        <v>33699</v>
       </c>
       <c r="C29" t="n">
         <v>1.21</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tensiometro Digital Automatico de Muñeca 99 memorias (CH-617) </t>
+          <t>MESA LUZ JUVENIL 1 CAJON 1 PUERTA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>13520</v>
+        <v>20940.12</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I1300-SF</t>
+          <t>6426-CON</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9399</v>
+        <v>33699</v>
       </c>
       <c r="C30" t="n">
         <v>1.21</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">TENSIOMETRO ANEROIDE SILFAB - (I1300-SF) </t>
+          <t>MESA LUZ JUVENIL 1 CAJON 1 PUERTA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5879</v>
+        <v>20940.12</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHU503</t>
+          <t>6430-BM</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46199</v>
+        <v>19299</v>
       </c>
       <c r="C31" t="n">
         <v>1.21</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Silfab</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">TENSIOMETRO DIGITAL AUTOMATICO DE BRAZO CON MANGA ESTANDAR - SILFAB ( CHU503) </t>
+          <t>MESA DE LUZ CON DESAYUNADOR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>28673</v>
+        <v>12016.764</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>CHUD514</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>27399</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Silfab</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TENSIOMETRO DIGITAL AUTOMATICO DE BRAZO CON MANGA ESTANDAR - SILFAB (CHUD514) </t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>17001</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>TAM200</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>17399</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Silfab</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TENSIOMETRO AUTOMATICO DE BRAZO SILFAB - (TAM200) </t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10817</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CHU304</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>28099</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Silfab</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tensiómetro digital automático de brazo con manga estándar (CHU304) </t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>17429</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>TAB100</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>22499</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Silfab</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TENSIOMETRO AUTOMATICO DE BRAZO SILFAB - (TAB100) </t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>13959</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CTA301-C</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>699</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Silfab</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Termometro Clinico Digital CTA301-C </t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>483.75</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AG-CCMV12</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>17799</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Silfab</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vaporizador SILFAB 220-240V 50/60Hz (AG-CCMV12) </t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>11072</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Salud</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
